--- a/Question_Sets/Role-specific skills/QuickBooks Online (US Version).xlsx
+++ b/Question_Sets/Role-specific skills/QuickBooks Online (US Version).xlsx
@@ -16,23 +16,60 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t>questions = [{'title': 'Due to an oversight, one of your colleagues has referred to a vendor, ANA, as two separate vendors in the QuickBooks Online Vendor Center once spelled correctly (ANA), and once spelled incorrectly (ANNA).How should you clean up the vendor list?', 'ques_type': 2, 'options': ['Delete the ANNA account.', 'Merge the ANA and ANNA accounts.', 'Make ANA the parent vendor.', 'Make the ANNA account inactive.'], 'score': 'Merge the ANA and ANNA accounts.'}, {'title': 'A customer, ABC, has requested a document showing all their unpaid invoices from the last 365 days.How should you generate this in QuickBooks Online?', 'ques_type': 2, 'options': ['Sales &amp;gt All Sales &amp;gt Filter &amp;gt select Date Last 365 Days &amp;gt Apply.', 'Sales &amp;gt All Sales &amp;gt New Transaction &amp;gt Time Activity.', 'Sales &amp;gt Customers &amp;gt select Customer ABC &amp;gt New Transaction &amp;gt select Statement.', 'Reports &amp;gt Standard &amp;gt Statement of Cash Flows.'], 'score': 'Sales &amp;gt Customers &amp;gt select Customer ABC &amp;gt New Transaction &amp;gt select Statement.'}, {'title': 'When processing bills and expenses and making payments in QuickBooks Online, which of the following is correct?', 'ques_type': 2, 'options': ['The Pay Bills function is used when paying for a purchase immediately.', 'Creating a bill will record a transaction as an expense and a payment simultaneously.', 'Bills are for items purchased or services received now but paid for later.', 'Bills are used when paying for something by credit card.'], 'score': 'Bills are for items purchased or services received now but paid for later.'}, {'title': 'When should you process a journal entry in QuickBooks Online?', 'ques_type': 2, 'options': ['When correcting errors and processing credit memos.', 'When processing year-end adjustments and recording expenses.', 'When correcting errors and processing year-end adjustments.', 'When processing year-end adjustments and creating customer refunds.'], 'score': 'When correcting errors and processing year-end adjustments.'}]</t>
+    <t>questions = [
+    {
+        "title": "Due to an oversight, one of your colleagues has referred to a vendor, ANA, as two separate vendors in the QuickBooks Online Vendor Center once spelled correctly (ANA), and once spelled incorrectly (ANNA).How should you clean up the vendor list?",
+        "ques_type": 2,
+        "options": [
+            "Delete the ANNA account.",
+            "Merge the ANA and ANNA accounts.",
+            "Make ANA the parent vendor.",
+            "Make the ANNA account inactive."
+        ],
+        "score": "Merge the ANA and ANNA accounts."
+    },
+    {
+        "title": "A customer, ABC, has requested a document showing all their unpaid invoices from the last 365 days.How should you generate this in QuickBooks Online?",
+        "ques_type": 2,
+        "options": [
+            "Sales &amp;gt All Sales &amp;gt Filter &amp;gt select Date Last 365 Days &amp;gt Apply.",
+            "Sales &amp;gt All Sales &amp;gt New Transaction &amp;gt Time Activity.",
+            "Sales &amp;gt Customers &amp;gt select Customer ABC &amp;gt New Transaction &amp;gt select Statement.",
+            "Reports &amp;gt Standard &amp;gt Statement of Cash Flows."
+        ],
+        "score": "Sales &amp;gt Customers &amp;gt select Customer ABC &amp;gt New Transaction &amp;gt select Statement."
+    },
+    {
+        "title": "When processing bills and expenses and making payments in QuickBooks Online, which of the following is correct?",
+        "ques_type": 2,
+        "options": [
+            "The Pay Bills function is used when paying for a purchase immediately.",
+            "Creating a bill will record a transaction as an expense and a payment simultaneously.",
+            "Bills are for items purchased or services received now but paid for later.",
+            "Bills are used when paying for something by credit card."
+        ],
+        "score": "Bills are for items purchased or services received now but paid for later."
+    },
+    {
+        "title": "When should you process a journal entry in QuickBooks Online?",
+        "ques_type": 2,
+        "options": [
+            "When correcting errors and processing credit memos.",
+            "When processing year-end adjustments and recording expenses.",
+            "When correcting errors and processing year-end adjustments.",
+            "When processing year-end adjustments and creating customer refunds."
+        ],
+        "score": "When correcting errors and processing year-end adjustments."
+    }
+]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -48,7 +85,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -56,30 +93,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -374,19 +393,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
